--- a/数据集信息/数据表结构_updated.xlsx
+++ b/数据集信息/数据表结构_updated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xiaoya Zhang\02-研究性项目\09-北大联合实验室\data\2019提取数据\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\GNN_projects\数据集信息\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359C5FDC-B26A-4950-A71F-CD40480E740B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12410"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="19" r:id="rId1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2407" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2413" uniqueCount="1458">
   <si>
     <t>-- Create table</t>
   </si>
@@ -4477,11 +4478,35 @@
     <t>使用时需将两个明细数据set一起，然后通过主单HISID关联相应的明细数据</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>主单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>明细</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>病案主单</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>病案手术记录表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>病案手术明细表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>出院小结</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4536,12 +4561,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -4603,7 +4634,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4625,31 +4656,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4659,11 +4672,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4695,7 +4732,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\ThinkPad\Documents\Tencent Files\61833539\Image\C2C\%~CY[HCP6G5BGJ_@B9Z@6SN.jpg"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\ThinkPad\Documents\Tencent Files\61833539\Image\C2C\%~CY[HCP6G5BGJ_@B9Z@6SN.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4995,10 +5038,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5064,7 +5109,7 @@
       <c r="E3" s="2">
         <v>2019</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="12" t="s">
         <v>1451</v>
       </c>
     </row>
@@ -5084,21 +5129,21 @@
       <c r="E4" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="12" t="s">
         <v>1450</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="19" t="s">
         <v>642</v>
       </c>
       <c r="E5" s="2">
@@ -5106,16 +5151,16 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>637</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="19" t="s">
         <v>643</v>
       </c>
       <c r="E6" s="2">
@@ -5123,16 +5168,16 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="19" t="s">
         <v>645</v>
       </c>
       <c r="E7" s="2">
@@ -5140,16 +5185,16 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="19" t="s">
         <v>647</v>
       </c>
       <c r="E8" s="2">
@@ -5157,16 +5202,16 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="19" t="s">
         <v>648</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="19" t="s">
         <v>649</v>
       </c>
       <c r="E9" s="2">
@@ -5174,16 +5219,16 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="20" t="s">
         <v>651</v>
       </c>
       <c r="E10" s="2">
@@ -5191,16 +5236,16 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="19" t="s">
         <v>652</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -5259,16 +5304,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="19" t="s">
         <v>662</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -5276,16 +5321,16 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="19" t="s">
         <v>661</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="19" t="s">
         <v>663</v>
       </c>
       <c r="E16" s="2">
@@ -5295,12 +5340,16 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:A212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6376,11 +6425,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6503,11 +6555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -6519,6 +6574,9 @@
       <c r="A1" t="s">
         <v>214</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8299,11 +8357,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8315,6 +8376,9 @@
       <c r="A1" t="s">
         <v>175</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8706,10 +8770,15 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8720,6 +8789,9 @@
       <c r="A1" t="s">
         <v>199</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>1456</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -8949,11 +9021,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -8966,6 +9038,9 @@
       <c r="A1" t="s">
         <v>321</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>1457</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9111,7 +9186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9394,7 +9469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9649,7 +9724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9929,7 +10004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9938,13 +10013,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="16"/>
-    <col min="2" max="2" width="13.08984375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="26.7265625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="39.36328125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="11"/>
+    <col min="1" max="1" width="8.7265625" style="10"/>
+    <col min="2" max="2" width="13.08984375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="39.36328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9968,264 +10043,275 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>1431</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="14">
         <v>330799</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1432</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>1433</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="15" t="s">
         <v>1434</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>1435</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="8" t="s">
         <v>1437</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="14" t="s">
         <v>1438</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="14">
         <v>330723</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>1433</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="15" t="s">
         <v>1434</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>1439</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="8" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="14" t="s">
         <v>1441</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="14">
         <v>330727</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="15" t="s">
         <v>1433</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="15" t="s">
         <v>1434</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>1439</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="10" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="8" t="s">
         <v>1440</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="14" t="s">
         <v>1442</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="14">
         <v>330726</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="15" t="s">
         <v>1433</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="15" t="s">
         <v>1434</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="8" t="s">
         <v>1443</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="10" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="8" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="14" t="s">
         <v>1445</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="14">
         <v>330781</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="15" t="s">
         <v>1433</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="15" t="s">
         <v>1434</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>1443</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="8" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="14" t="s">
         <v>1446</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="14">
         <v>330782</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="17" t="s">
         <v>1432</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="15" t="s">
         <v>1433</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="15" t="s">
         <v>1434</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>1447</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="14" t="s">
         <v>1448</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="14">
         <v>330783</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="15" t="s">
         <v>1433</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="15" t="s">
         <v>1434</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="8" t="s">
         <v>1443</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="10" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="8" t="s">
         <v>1444</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="14" t="s">
         <v>1449</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="14">
         <v>330784</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1432</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="15" t="s">
         <v>1433</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="15" t="s">
         <v>1434</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="8" t="s">
         <v>1443</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="5" t="s">
         <v>1436</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="8" t="s">
         <v>1444</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="D16:D17"/>
@@ -10239,22 +10325,11 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10263,10 +10338,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -10391,7 +10466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10481,7 +10556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10568,7 +10643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10910,7 +10985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11252,7 +11327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L133"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13265,11 +13340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -13281,6 +13359,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1452</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -14154,11 +14235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -14170,6 +14254,9 @@
       <c r="A1" t="s">
         <v>15</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1453</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
